--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LRP_Latest_Updated_Frameworks_2025\LRP_Automation_Test_Scripts_V1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBT\Documents\LRP_Automation_Test_Scripts_V1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3770,7 +3770,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -4258,8 +4258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A384" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4325,7 +4325,7 @@
       <c r="E2" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>557</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -9606,7 +9606,7 @@
         <v>559</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>1246</v>
+        <v>557</v>
       </c>
       <c r="G167" s="22" t="s">
         <v>8</v>
@@ -14214,7 +14214,7 @@
         <v>945</v>
       </c>
       <c r="F311" s="18" t="s">
-        <v>557</v>
+        <v>1246</v>
       </c>
       <c r="G311" s="22" t="s">
         <v>8</v>
@@ -14246,7 +14246,7 @@
         <v>947</v>
       </c>
       <c r="F312" s="18" t="s">
-        <v>557</v>
+        <v>1246</v>
       </c>
       <c r="G312" s="22" t="s">
         <v>8</v>
@@ -14726,7 +14726,7 @@
         <v>977</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>557</v>
+        <v>1246</v>
       </c>
       <c r="G327" s="22" t="s">
         <v>8</v>
